--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik august 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik august 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -544,7 +544,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
+  </si>
+  <si>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -593,7 +596,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,7 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -668,6 +671,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7A999A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -704,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -761,31 +769,32 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2823,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1DD82B-B96C-4DF9-8613-E313714CA1CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3AD6C4-9D61-4E78-BC02-F4456C9B20D2}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3167,6 +3176,9 @@
       <c r="G15" s="24">
         <v>26.25</v>
       </c>
+      <c r="H15" s="34" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -3649,7 +3661,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -4424,7 +4436,7 @@
       <c r="B69" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="22">
@@ -4448,7 +4460,7 @@
       <c r="B70" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="22">
@@ -4552,11 +4564,11 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="34">
+      <c r="F75" s="35">
         <f>+F72/F74</f>
         <v>0.6049149338374291</v>
       </c>
-      <c r="G75" s="34">
+      <c r="G75" s="35">
         <f>+G72/G74</f>
         <v>0.5629560039332676</v>
       </c>
@@ -4568,7 +4580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1EC9A4-9A39-40BF-983E-E6ABD126705F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F5A254-BD63-4D78-9BAE-000D9A9F4E5E}">
   <dimension ref="A2:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4634,20 +4646,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>177</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -4657,19 +4669,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46">
         <f>+D7*E7</f>
         <v>1</v>
       </c>
@@ -4681,19 +4693,19 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>6</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="46">
         <f ref="F8:F36" t="shared" si="0">+D8*E8</f>
         <v>6</v>
       </c>
@@ -4705,19 +4717,19 @@
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
-      <c r="E9" s="43">
-        <v>1</v>
-      </c>
-      <c r="F9" s="45">
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4729,19 +4741,19 @@
       <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="0">
         <v>5</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="44">
         <v>2</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4753,19 +4765,19 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="44">
         <v>2</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4777,19 +4789,19 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="44">
         <v>44</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4801,19 +4813,19 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
-      <c r="E13" s="43">
-        <v>1</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4825,19 +4837,19 @@
       <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="44">
         <v>2</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4849,19 +4861,19 @@
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15" s="43">
-        <v>1</v>
-      </c>
-      <c r="F15" s="45">
+      <c r="E15" s="44">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4873,19 +4885,19 @@
       <c r="A16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
       </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="45">
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4897,19 +4909,19 @@
       <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="44">
         <v>2</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4921,19 +4933,19 @@
       <c r="A18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18" s="43">
-        <v>3</v>
-      </c>
-      <c r="F18" s="45">
+      <c r="E18" s="44">
+        <v>3</v>
+      </c>
+      <c r="F18" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4945,19 +4957,19 @@
       <c r="A19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="0">
         <v>5</v>
       </c>
-      <c r="E19" s="43">
-        <v>3</v>
-      </c>
-      <c r="F19" s="45">
+      <c r="E19" s="44">
+        <v>3</v>
+      </c>
+      <c r="F19" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4969,19 +4981,19 @@
       <c r="A20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="41" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="44">
         <v>37</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="46">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -4993,19 +5005,19 @@
       <c r="A21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="41" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="0">
         <v>5</v>
       </c>
-      <c r="E21" s="43">
-        <v>5</v>
-      </c>
-      <c r="F21" s="45">
+      <c r="E21" s="44">
+        <v>5</v>
+      </c>
+      <c r="F21" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -5017,19 +5029,19 @@
       <c r="A22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="44">
         <v>2</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5041,19 +5053,19 @@
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="0">
         <v>5</v>
       </c>
-      <c r="E23" s="43">
-        <v>5</v>
-      </c>
-      <c r="F23" s="45">
+      <c r="E23" s="44">
+        <v>5</v>
+      </c>
+      <c r="F23" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -5065,19 +5077,19 @@
       <c r="A24" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="44">
         <v>4</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5089,19 +5101,19 @@
       <c r="A25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25" s="43">
-        <v>1</v>
-      </c>
-      <c r="F25" s="45">
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5113,19 +5125,19 @@
       <c r="A26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="0">
         <v>5</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="44">
         <v>2</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5137,19 +5149,19 @@
       <c r="A27" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27" s="43">
-        <v>1</v>
-      </c>
-      <c r="F27" s="45">
+      <c r="E27" s="44">
+        <v>1</v>
+      </c>
+      <c r="F27" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5161,19 +5173,19 @@
       <c r="A28" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="44">
         <v>27</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="46">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -5185,19 +5197,19 @@
       <c r="A29" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
-      <c r="E29" s="43">
-        <v>1</v>
-      </c>
-      <c r="F29" s="45">
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5209,19 +5221,19 @@
       <c r="A30" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="0">
         <v>5</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="44">
         <v>10</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="46">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -5233,19 +5245,19 @@
       <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="0">
         <v>1</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="44">
         <v>37</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="46">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -5257,19 +5269,19 @@
       <c r="A32" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="0">
         <v>1</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="44">
         <v>7</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5281,19 +5293,19 @@
       <c r="A33" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="0">
         <v>1</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="44">
         <v>4</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5305,19 +5317,19 @@
       <c r="A34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="0">
         <v>1</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="44">
         <v>85</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="46">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -5329,19 +5341,19 @@
       <c r="A35" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="0">
         <v>1</v>
       </c>
-      <c r="E35" s="43">
-        <v>5</v>
-      </c>
-      <c r="F35" s="45">
+      <c r="E35" s="44">
+        <v>5</v>
+      </c>
+      <c r="F35" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5353,19 +5365,19 @@
       <c r="A36" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="0">
         <v>1</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="44">
         <v>2</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5377,15 +5389,15 @@
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="39">
         <v>3070</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="42" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="46">
+      <c r="E37" s="45"/>
+      <c r="F37" s="47">
         <f>SUM(F7:F36)</f>
         <v>418</v>
       </c>
@@ -5403,20 +5415,20 @@
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>177</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>10</v>
@@ -5426,19 +5438,19 @@
       <c r="A40" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="0">
         <v>1</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="44">
         <v>2</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="46">
         <f ref="F40:F71" t="shared" si="1">+D40*E40</f>
         <v>2</v>
       </c>
@@ -5450,19 +5462,19 @@
       <c r="A41" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="41" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="0">
         <v>1</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="44">
         <v>8</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5474,19 +5486,19 @@
       <c r="A42" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="41" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="0">
         <v>5</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="44">
         <v>8</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="46">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5498,19 +5510,19 @@
       <c r="A43" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="0">
         <v>5</v>
       </c>
-      <c r="E43" s="43">
-        <v>3</v>
-      </c>
-      <c r="F43" s="45">
+      <c r="E43" s="44">
+        <v>3</v>
+      </c>
+      <c r="F43" s="46">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5522,19 +5534,19 @@
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="41" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="44">
         <v>29</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="46">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -5546,19 +5558,19 @@
       <c r="A45" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="41" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="0">
         <v>5</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="44">
         <v>8</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="46">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5570,19 +5582,19 @@
       <c r="A46" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="0">
         <v>1</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="44">
         <v>13</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="46">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5594,19 +5606,19 @@
       <c r="A47" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="41" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="0">
         <v>5</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="44">
         <v>17</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="46">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -5618,19 +5630,19 @@
       <c r="A48" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="41" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="0">
         <v>5</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="44">
         <v>4</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="46">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5642,19 +5654,19 @@
       <c r="A49" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="41" t="s">
         <v>109</v>
       </c>
       <c r="D49" s="0">
         <v>1</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="44">
         <v>2</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5666,19 +5678,19 @@
       <c r="A50" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="41" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="0">
         <v>1</v>
       </c>
-      <c r="E50" s="43">
-        <v>3</v>
-      </c>
-      <c r="F50" s="45">
+      <c r="E50" s="44">
+        <v>3</v>
+      </c>
+      <c r="F50" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5690,19 +5702,19 @@
       <c r="A51" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D51" s="0">
         <v>5</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="44">
         <v>2</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5714,19 +5726,19 @@
       <c r="A52" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="41" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="0">
         <v>1</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="44">
         <v>6</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5738,19 +5750,19 @@
       <c r="A53" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="41" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="0">
         <v>3</v>
       </c>
-      <c r="E53" s="43">
-        <v>3</v>
-      </c>
-      <c r="F53" s="45">
+      <c r="E53" s="44">
+        <v>3</v>
+      </c>
+      <c r="F53" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5762,19 +5774,19 @@
       <c r="A54" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="41" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="0">
         <v>5</v>
       </c>
-      <c r="E54" s="43">
-        <v>1</v>
-      </c>
-      <c r="F54" s="45">
+      <c r="E54" s="44">
+        <v>1</v>
+      </c>
+      <c r="F54" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5786,19 +5798,19 @@
       <c r="A55" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="41" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="0">
         <v>1</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="44">
         <v>12</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5810,19 +5822,19 @@
       <c r="A56" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="41" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="0">
         <v>1</v>
       </c>
-      <c r="E56" s="43">
-        <v>1</v>
-      </c>
-      <c r="F56" s="45">
+      <c r="E56" s="44">
+        <v>1</v>
+      </c>
+      <c r="F56" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5834,19 +5846,19 @@
       <c r="A57" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="41" t="s">
         <v>127</v>
       </c>
       <c r="D57" s="0">
         <v>3</v>
       </c>
-      <c r="E57" s="43">
-        <v>1</v>
-      </c>
-      <c r="F57" s="45">
+      <c r="E57" s="44">
+        <v>1</v>
+      </c>
+      <c r="F57" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5858,19 +5870,19 @@
       <c r="A58" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="0">
         <v>5</v>
       </c>
-      <c r="E58" s="43">
-        <v>1</v>
-      </c>
-      <c r="F58" s="45">
+      <c r="E58" s="44">
+        <v>1</v>
+      </c>
+      <c r="F58" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5882,19 +5894,19 @@
       <c r="A59" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="41" t="s">
         <v>131</v>
       </c>
       <c r="D59" s="0">
         <v>1</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="44">
         <v>7</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5906,19 +5918,19 @@
       <c r="A60" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="41" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="0">
         <v>3</v>
       </c>
-      <c r="E60" s="43">
-        <v>1</v>
-      </c>
-      <c r="F60" s="45">
+      <c r="E60" s="44">
+        <v>1</v>
+      </c>
+      <c r="F60" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5930,19 +5942,19 @@
       <c r="A61" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="41" t="s">
         <v>135</v>
       </c>
       <c r="D61" s="0">
         <v>1</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="44">
         <v>37</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="46">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -5954,19 +5966,19 @@
       <c r="A62" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="0">
         <v>3</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="44">
         <v>2</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5978,19 +5990,19 @@
       <c r="A63" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="41" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="0">
         <v>5</v>
       </c>
-      <c r="E63" s="43">
-        <v>5</v>
-      </c>
-      <c r="F63" s="45">
+      <c r="E63" s="44">
+        <v>5</v>
+      </c>
+      <c r="F63" s="46">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -6002,19 +6014,19 @@
       <c r="A64" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="41" t="s">
         <v>141</v>
       </c>
       <c r="D64" s="0">
         <v>1</v>
       </c>
-      <c r="E64" s="43">
-        <v>1</v>
-      </c>
-      <c r="F64" s="45">
+      <c r="E64" s="44">
+        <v>1</v>
+      </c>
+      <c r="F64" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6026,19 +6038,19 @@
       <c r="A65" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="41" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="0">
         <v>3</v>
       </c>
-      <c r="E65" s="43">
-        <v>3</v>
-      </c>
-      <c r="F65" s="45">
+      <c r="E65" s="44">
+        <v>3</v>
+      </c>
+      <c r="F65" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -6050,19 +6062,19 @@
       <c r="A66" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="41" t="s">
         <v>145</v>
       </c>
       <c r="D66" s="0">
         <v>5</v>
       </c>
-      <c r="E66" s="43">
-        <v>1</v>
-      </c>
-      <c r="F66" s="45">
+      <c r="E66" s="44">
+        <v>1</v>
+      </c>
+      <c r="F66" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -6074,19 +6086,19 @@
       <c r="A67" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D67" s="0">
         <v>1</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="44">
         <v>6</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6098,19 +6110,19 @@
       <c r="A68" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="41" t="s">
         <v>149</v>
       </c>
       <c r="D68" s="0">
         <v>5</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="44">
         <v>15</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="46">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -6122,19 +6134,19 @@
       <c r="A69" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="0">
         <v>1</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="44">
         <v>18</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="46">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6146,19 +6158,19 @@
       <c r="A70" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="41" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="0">
         <v>5</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="44">
         <v>27</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="46">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
@@ -6170,19 +6182,19 @@
       <c r="A71" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C71" s="41" t="s">
         <v>156</v>
       </c>
       <c r="D71" s="0">
         <v>1</v>
       </c>
-      <c r="E71" s="43">
-        <v>5</v>
-      </c>
-      <c r="F71" s="45">
+      <c r="E71" s="44">
+        <v>5</v>
+      </c>
+      <c r="F71" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -6194,15 +6206,15 @@
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="39">
         <v>3070</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="42" t="s">
         <v>86</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="46">
+      <c r="E72" s="45"/>
+      <c r="F72" s="47">
         <f>SUM(F40:F71)</f>
         <v>640</v>
       </c>
